--- a/public/sampleBB.xlsx
+++ b/public/sampleBB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPABIBNBX013\Documents\ICT Project Software\new-itportal\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F7928-A88A-4FA8-AFD1-B16B7660E288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAB97EE-C3C6-4307-9208-769128BCD43C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
@@ -20,26 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
-  <si>
-    <t>max_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>device_name</t>
   </si>
@@ -77,27 +63,12 @@
     <t>Ubiquiti</t>
   </si>
   <si>
-    <t>device_model = frequency</t>
-  </si>
-  <si>
-    <t>mac_address = serial_number</t>
-  </si>
-  <si>
     <t>READY_USED</t>
   </si>
   <si>
     <t>*JIKA ADA DATA TIDAK ADA ATAU KOSONG BISA DI ISI DENGAN (-)</t>
   </si>
   <si>
-    <t>PPABIBBB001</t>
-  </si>
-  <si>
-    <t>PPABIBBB002</t>
-  </si>
-  <si>
-    <t>PPABIBBB003</t>
-  </si>
-  <si>
     <t>F4:92:BF:FA:ED:4D</t>
   </si>
   <si>
@@ -144,13 +115,55 @@
   </si>
   <si>
     <t>Mess B13 Lama</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Asset Ho Number</t>
+  </si>
+  <si>
+    <t>mac_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_model </t>
+  </si>
+  <si>
+    <t>1283713131</t>
+  </si>
+  <si>
+    <t>LITE</t>
+  </si>
+  <si>
+    <t>READY_STANDBY</t>
+  </si>
+  <si>
+    <t>12318741412</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>12391313311</t>
+  </si>
+  <si>
+    <t>5AC GEN2</t>
+  </si>
+  <si>
+    <t>PPAHOBB001</t>
+  </si>
+  <si>
+    <t>PPAHOBB002</t>
+  </si>
+  <si>
+    <t>PPAHOBB003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +196,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -263,7 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +293,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,13 +351,13 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="16363950" cy="2247900"/>
+    <xdr:ext cx="16363950" cy="2103120"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3520046-E6F1-4603-887F-4EB69363BFF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F620AA67-59A2-41D8-AE40-6679A2BD1B9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +378,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="16363950" cy="2247900"/>
+          <a:ext cx="16363950" cy="2103120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,232 +711,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41EB6C-1614-4483-BF76-7A2D3A426679}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -905,185 +947,197 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1232</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10212</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>11202</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/sampleBB.xlsx
+++ b/public/sampleBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp_8\htdocs\coba_newitportal\IT-PORTAL-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAB97EE-C3C6-4307-9208-769128BCD43C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2E1F9-91F5-4804-8C4A-AADDF92924A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>FORMAT IMPORT DATA ACCESS POINT (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
-  </si>
-  <si>
     <t>Ubiquiti</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>PPAHOBB003</t>
+  </si>
+  <si>
+    <t>FORMAT IMPORT DATA WIRELLESS (PADA COLUMN MAX_ID WAJIB DI ISI NOMER URUT SESUAI DENGAN NOMER URUT INVENTORY)</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -917,7 +917,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -949,7 +949,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -966,13 +966,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>5</v>
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>7</v>
@@ -1013,43 +1013,43 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10">
         <v>1232</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1057,43 +1057,43 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10">
         <v>10212</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="L18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1101,43 +1101,43 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="10">
         <v>11202</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/sampleBB.xlsx
+++ b/public/sampleBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT PPA-BIB\Documents\PROJECT ICT SOFTWARE\IT-PORTAL-HO-FIXED-ONLY-HO\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A8A337-5407-47ED-A31F-93DD6C8AC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43EF78-2ACE-46BD-A19C-BEC5B175B683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{AA518A1B-D065-49A0-8AFF-0FB34B05899E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>device_name</t>
   </si>
@@ -66,27 +66,15 @@
     <t>Asset Ho Number</t>
   </si>
   <si>
-    <t>LIST DATA IMPORT AP &amp; Panduan Pengisian</t>
-  </si>
-  <si>
     <t xml:space="preserve">* KOLOM/DATA TIDAK BOLOEH KOSONG, JIKA ADA YANG KOSONG MAKA DI ISIKAN DENGAN (-) </t>
   </si>
   <si>
     <t>* PENGISIAN NOMER INVENTORY SESUAIKAN DENGAN SITE MASING MASING, UNTUK DATA YANG SUDAH ADA PADA SHEET INI BOLEH DI HAPUS KARENA HANYA BERSIFAT SAMPLE DATA!</t>
   </si>
   <si>
-    <t>* UNTUK DEVICE DENGAN MERK UBUQUITY MAKA SN NYA ISI DENGAN MAC ADDRESS SESUAI AKTUAL DATA, JIKA MERK BUKAN UBIQUITY MAKA ISI DENGAN SESUAI DATA AKTUAL YANG ADA PADA SITE MASING-MASING</t>
-  </si>
-  <si>
-    <t>* PADA BAGIAN KOLOM FREQUENCY ISIKAN DENGAN FREQUESNCY YANG SEDANG DI GUNAKAN/ DI PANCARKAN OLEH DEVICE TERSEBUT SECARA AKTUAL</t>
-  </si>
-  <si>
     <t>5.8 Ghz</t>
   </si>
   <si>
-    <t>* PADA BAGIAN KOLONG DEVICE MODEL ISIKAN DENGAN AKTUAL FREQUENCY YANG BISA DI GUNAKAN OLEH DEVICE TERSEBUT, JIKA BISA 2,4 /5.8 GHZ MAKA ISI DENGAN AKTUAL, JIKA ONLY 5.8 GHZ MAKA ISI DENGAN AKTUALNYA 5.8 GHZ SAJA</t>
-  </si>
-  <si>
     <t>DIMOHON UNTUK MEMBACA PETUNJUK DI ATAS SEBELUM MELAKUKAN PENGISIAN DATA, UNTUK MENGHINDARI ADANYA KESALAHAN/GAGAL IMPORT DATA PADA SISTEM.</t>
   </si>
   <si>
@@ -172,6 +160,15 @@
   </si>
   <si>
     <t>SCRAP</t>
+  </si>
+  <si>
+    <t>LIST DATA IMPORT BB/WIRELLESS &amp; Panduan Pengisian</t>
+  </si>
+  <si>
+    <t>* PADA BAGIAN KOLOM FREQUENCY ISIKAN DENGAN FREQUENCY YANG SEDANG DI GUNAKAN/ DI PANCARKAN OLEH DEVICE TERSEBUT SECARA AKTUAL</t>
+  </si>
+  <si>
+    <t>* PADA BAGIAN KOLOM DEVICE MODEL ISIKAN DENGAN AKTUAL DARI MODEL BACKBONE/WIRELLESS</t>
   </si>
 </sst>
 </file>
@@ -314,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -325,20 +322,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +336,19 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -689,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41EB6C-1614-4483-BF76-7A2D3A426679}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,42 +710,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -765,7 +763,7 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -782,8 +780,8 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
+      <c r="A5" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -800,8 +798,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
+      <c r="A6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -818,9 +816,7 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -900,38 +896,38 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="A12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -966,46 +962,46 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="K16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1014,43 +1010,43 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1232</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1232</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1058,43 +1054,43 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="13">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
         <v>10212</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1102,43 +1098,43 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="13">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
         <v>11202</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
